--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_02_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_02_Final.xlsx
@@ -30,6 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,44 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Cash</t>
   </si>
   <si>
-    <t>Accounts</t>
-  </si>
-  <si>
-    <t>Receivable</t>
-  </si>
-  <si>
-    <t>Payable</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>Stock</t>
-  </si>
-  <si>
-    <t>Retained</t>
-  </si>
-  <si>
-    <t>Earnings</t>
-  </si>
-  <si>
-    <t>Fees</t>
-  </si>
-  <si>
-    <t>Earned</t>
-  </si>
-  <si>
-    <t>Rent</t>
-  </si>
-  <si>
-    <t>Expense</t>
-  </si>
-  <si>
     <t>Assets</t>
   </si>
   <si>
@@ -96,9 +64,6 @@
     <t>=</t>
   </si>
   <si>
-    <t>Supplies</t>
-  </si>
-  <si>
     <t>Sold to customers for cash, $3,600</t>
   </si>
   <si>
@@ -109,18 +74,48 @@
   </si>
   <si>
     <t>Received cash on account, $1,600</t>
+  </si>
+  <si>
+    <t>Retained Earnings</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Common 
+Stock</t>
+  </si>
+  <si>
+    <t>Fees Earned</t>
+  </si>
+  <si>
+    <t>Rent Expense</t>
+  </si>
+  <si>
+    <t>Supplies Expense</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -140,20 +135,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -162,6 +144,42 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -181,28 +199,142 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
       </left>
       <right/>
       <top/>
@@ -211,69 +343,137 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="23">
     <cellStyle name="Comma 2" xfId="7"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="6"/>
@@ -671,7 +871,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -679,231 +879,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O10"/>
+  <dimension ref="B2:N8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
     <col min="4" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="3.5" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
     <col min="8" max="8" width="3.6640625" customWidth="1"/>
     <col min="9" max="10" width="9.5" customWidth="1"/>
     <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="12" width="1.5" hidden="1" customWidth="1"/>
-    <col min="13" max="15" width="9.5" customWidth="1"/>
-    <col min="16" max="16" width="7" customWidth="1"/>
+    <col min="12" max="14" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15" thickBot="1">
-      <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
+    <row r="2" spans="2:14" ht="15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="2" t="s">
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+    </row>
+    <row r="3" spans="2:14" ht="16" thickBot="1">
+      <c r="C3" s="8"/>
+      <c r="D3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="17"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="2:14" ht="45">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="13"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="13"/>
     </row>
-    <row r="3" spans="2:15">
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="3" t="s">
+    <row r="5" spans="2:14" ht="33" customHeight="1">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="D5" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="2:14" ht="33" customHeight="1">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="2:14" ht="33" customHeight="1">
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
-    <row r="4" spans="2:15">
-      <c r="C4" s="1"/>
-      <c r="D4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="9" t="s">
+    <row r="8" spans="2:14" ht="33" customHeight="1">
+      <c r="B8" s="1">
         <v>9</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3600</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7">
-        <v>3600</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="8">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7">
+      <c r="D8" s="3">
         <v>1600</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7">
-        <v>1600</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="8">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
-        <v>2100</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7">
-        <v>2100</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="8">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1600</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>-1600</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="C10" s="12"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="N2:O2"/>
+  <mergeCells count="5">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="L2:N2"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="59" orientation="portrait"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="16" max="1048575" man="1"/>
+  </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_02_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_02_Final.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1731D934-53FB-4256-9010-1A9420089D1E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphics 1 to 11" sheetId="1" r:id="rId1"/>
@@ -21,17 +27,11 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -101,10 +101,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0;\ \(#,##0\)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -376,7 +376,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -401,7 +401,7 @@
     <xf numFmtId="37" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="37" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -459,7 +459,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="23">
-    <cellStyle name="Comma 2" xfId="7"/>
+    <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
@@ -475,13 +475,13 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
-    <cellStyle name="Normal 2 3" xfId="8"/>
-    <cellStyle name="Normal 29" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 3 2" xfId="4"/>
-    <cellStyle name="Percent 2" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 2 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 29" xfId="2" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Start"/>
@@ -871,218 +871,219 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" customWidth="1"/>
-    <col min="4" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" customWidth="1"/>
-    <col min="9" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="14" width="9.5" customWidth="1"/>
-    <col min="15" max="15" width="7" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
+    <col min="11" max="13" width="9.42578125" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15">
-      <c r="C2" s="6"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="20" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="22"/>
     </row>
-    <row r="3" spans="2:14" ht="16" thickBot="1">
-      <c r="C3" s="8"/>
-      <c r="D3" s="16" t="s">
+    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="9" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="11" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="L2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="M2" s="17"/>
     </row>
-    <row r="4" spans="2:14" ht="45">
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
+    <row r="3" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+      <c r="C3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="15" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="L3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="33" customHeight="1">
-      <c r="B5" s="1">
+    <row r="4" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="3">
+        <v>3600</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3">
-        <v>3600</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
+        <v>1600</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="3">
-        <v>3600</v>
-      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="2:14" ht="33" customHeight="1">
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>9</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3">
         <v>1600</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="2:14" ht="33" customHeight="1">
-      <c r="B7" s="1">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
+      <c r="D7" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="3">
-        <v>2100</v>
-      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="2:14" ht="33" customHeight="1">
-      <c r="B8" s="1">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="16" max="1048575" man="1"/>
+    <brk id="15" max="1048575" man="1"/>
   </colBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_02_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_02_Final.xlsx
@@ -72,15 +72,6 @@
     <t>Supplies Expense</t>
   </si>
   <si>
-    <t>Sold to customers for cash, $3,600</t>
-  </si>
-  <si>
-    <t>Sold to customers on account, $1,600</t>
-  </si>
-  <si>
-    <t>Sold to customers on account, $2,100</t>
-  </si>
-  <si>
     <t>Received cash on account, $1,600</t>
   </si>
   <si>
@@ -94,6 +85,15 @@
   </si>
   <si>
     <t>9.</t>
+  </si>
+  <si>
+    <t>Sold for cash, $3,600</t>
+  </si>
+  <si>
+    <t>Sold on account, $1,600</t>
+  </si>
+  <si>
+    <t>Sold on account, $2,100</t>
   </si>
 </sst>
 </file>
@@ -949,7 +949,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:Q7"/>
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" s="19">
         <v>3600</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="12"/>
@@ -1109,10 +1109,10 @@
     </row>
     <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="12"/>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="7" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="19">
         <v>1600</v>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_02_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_02_Final.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC98FB7E-434E-4369-8109-DC988D54E239}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphics 1 to 11" sheetId="1" r:id="rId1"/>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -603,7 +604,7 @@
     <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="135"/>
+    <cellStyle name="Normal 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -945,11 +946,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_02_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_02_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC98FB7E-434E-4369-8109-DC988D54E239}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B848B023-7CB5-49ED-BBB6-E80B2882FCAB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -205,35 +205,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -255,6 +231,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFABF8F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFABF8F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFABF8F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFABF8F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFABF8F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFABF8F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -400,7 +445,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -417,7 +462,7 @@
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -433,11 +478,8 @@
     <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="5" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -446,16 +488,37 @@
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -610,6 +673,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FFFABF8F"/>
       <color rgb="FFFEF1E6"/>
       <color rgb="FFFEF4EC"/>
     </mruColors>
@@ -949,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -967,32 +1031,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="20"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
       <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1002,24 +1066,24 @@
       <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
       <c r="L2" s="11"/>
       <c r="M2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="9"/>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="20"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
@@ -1036,14 +1100,14 @@
       <c r="H3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="17"/>
+      <c r="L3" s="16"/>
       <c r="M3" s="13" t="s">
         <v>12</v>
       </c>
@@ -1057,7 +1121,7 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1070,95 +1134,95 @@
       <c r="E4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="19"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="6"/>
       <c r="K4" s="19"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="19">
+      <c r="M4" s="24">
         <v>3600</v>
       </c>
       <c r="N4" s="5"/>
-      <c r="O4" s="19"/>
+      <c r="O4" s="24"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="19"/>
     </row>
     <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="19">
+      <c r="E5" s="23">
         <v>1600</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="6"/>
-      <c r="K5" s="19"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="19">
+      <c r="M5" s="23">
         <v>1600</v>
       </c>
       <c r="N5" s="5"/>
-      <c r="O5" s="19"/>
+      <c r="O5" s="18"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="19"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="19">
+      <c r="E6" s="23">
         <v>2100</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="19"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="19">
+      <c r="M6" s="25">
         <v>2100</v>
       </c>
       <c r="N6" s="5"/>
-      <c r="O6" s="19"/>
+      <c r="O6" s="21"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="22">
         <v>1600</v>
       </c>
       <c r="D7" s="12"/>
-      <c r="E7" s="19">
+      <c r="E7" s="22">
         <v>-1600</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="20"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="19"/>
+      <c r="K7" s="22"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="19"/>
+      <c r="M7" s="22"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="19"/>
+      <c r="O7" s="20"/>
       <c r="P7" s="7"/>
-      <c r="Q7" s="19"/>
+      <c r="Q7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_02_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_02_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B848B023-7CB5-49ED-BBB6-E80B2882FCAB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3D3942-F45B-4324-B261-10BBED853450}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_02_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05_IE_02_Final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mallika/Dropbox/Accounting Courseware/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3D3942-F45B-4324-B261-10BBED853450}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A063607D-DBB8-904C-9BFD-536085362E82}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphics 1 to 11" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Assets</t>
   </si>
@@ -445,7 +445,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -523,6 +523,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1014,23 +1017,23 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.375" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="10" max="10" width="1.375" customWidth="1"/>
-    <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="16" max="16" width="1.375" customWidth="1"/>
+    <col min="4" max="4" width="1.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" customWidth="1"/>
+    <col min="16" max="16" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="26"/>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -1042,15 +1045,13 @@
       <c r="J1" s="29"/>
       <c r="K1" s="29"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
-    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="26"/>
       <c r="C2" s="27" t="s">
         <v>0</v>
@@ -1082,7 +1083,7 @@
       <c r="P2" s="28"/>
       <c r="Q2" s="28"/>
     </row>
-    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="26"/>
       <c r="C3" s="13" t="s">
         <v>7</v>
@@ -1120,7 +1121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>16</v>
       </c>
@@ -1146,7 +1147,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="19"/>
     </row>
-    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>17</v>
       </c>
@@ -1172,7 +1173,7 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="21"/>
     </row>
-    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
@@ -1198,7 +1199,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="21"/>
     </row>
-    <row r="7" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>19</v>
       </c>
